--- a/Leetcode Problems.xlsx
+++ b/Leetcode Problems.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e67fcd90465231e9/Desktop/Study Material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e301380\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2069" documentId="8_{5F6A8DF2-1E3B-4509-ABFA-7FDFB05B0A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D74356D-5FF0-465B-B834-1D85E85B9DC2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF778BEA-7083-4578-AF4A-59A6B94122BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{A2574B3D-CE33-477F-9E43-04A3705B3233}"/>
+    <workbookView xWindow="2490" yWindow="2475" windowWidth="17280" windowHeight="9030" activeTab="6" xr2:uid="{A2574B3D-CE33-477F-9E43-04A3705B3233}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode Patterns" sheetId="7" r:id="rId1"/>
-    <sheet name="Gaps in Knowledge" sheetId="2" r:id="rId2"/>
-    <sheet name="Interview Handbook Problems" sheetId="1" r:id="rId3"/>
-    <sheet name="Leetcode Master" sheetId="3" r:id="rId4"/>
-    <sheet name="Slinding Window" sheetId="4" r:id="rId5"/>
-    <sheet name="Facebook" sheetId="5" r:id="rId6"/>
-    <sheet name="Facebook " sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Gaps in Knowledge" sheetId="2" r:id="rId3"/>
+    <sheet name="Interview Handbook Problems" sheetId="1" r:id="rId4"/>
+    <sheet name="Leetcode Master" sheetId="3" r:id="rId5"/>
+    <sheet name="Slinding Window" sheetId="4" r:id="rId6"/>
+    <sheet name="Leetcode 2022" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="620">
   <si>
     <t>Type</t>
   </si>
@@ -1320,12 +1321,6 @@
     <t>340. Longest Substring with At Most K Distinct Characters</t>
   </si>
   <si>
-    <t>680. Valid Palindrome II</t>
-  </si>
-  <si>
-    <t>Solution requires a greedy approach</t>
-  </si>
-  <si>
     <t>217. Contains Duplicate</t>
   </si>
   <si>
@@ -1882,6 +1877,27 @@
   </si>
   <si>
     <t>Backtracking problem</t>
+  </si>
+  <si>
+    <t>643. Maximum Average Subarray I</t>
+  </si>
+  <si>
+    <t>Sliding Window Approach</t>
+  </si>
+  <si>
+    <t>O(N)/O(1)</t>
+  </si>
+  <si>
+    <t>Maximum Sum Subarray of Size K (easy)</t>
+  </si>
+  <si>
+    <t>209. Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>Sliding Window Approach with while loop shrinking the window when sum is greater or equal target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add character freq to dictionary, while freq Count is &gt; than k shrink window, get window size </t>
   </si>
 </sst>
 </file>
@@ -2516,26 +2532,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C001DF1C-A6C5-4C7F-AE02-5AF141C0CE30}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.05078125" customWidth="1"/>
-    <col min="2" max="2" width="50.62890625" customWidth="1"/>
-    <col min="3" max="3" width="15.05078125" customWidth="1"/>
-    <col min="4" max="4" width="14.3125" customWidth="1"/>
-    <col min="5" max="5" width="12.15625" customWidth="1"/>
-    <col min="6" max="6" width="13.83984375" customWidth="1"/>
-    <col min="7" max="7" width="14.15625" customWidth="1"/>
-    <col min="8" max="8" width="63.89453125" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="63.85546875" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="14.5234375" customWidth="1"/>
-    <col min="11" max="11" width="11.89453125" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2567,15 +2583,15 @@
         <v>120</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>10</v>
@@ -2589,21 +2605,21 @@
       <c r="F2" s="24"/>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J2" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2617,21 +2633,21 @@
       <c r="F3" s="11"/>
       <c r="G3" s="3"/>
       <c r="H3" t="s">
+        <v>431</v>
+      </c>
+      <c r="I3" t="s">
+        <v>432</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>433</v>
       </c>
-      <c r="I3" t="s">
+      <c r="B4" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>436</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -2645,16 +2661,16 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2670,18 +2686,18 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" t="s">
+        <v>437</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>440</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>441</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -2692,21 +2708,21 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -2717,21 +2733,21 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" t="s">
+        <v>442</v>
+      </c>
+      <c r="I7" t="s">
+        <v>443</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>444</v>
       </c>
-      <c r="I7" t="s">
+      <c r="B8" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>446</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>447</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -2742,21 +2758,21 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -2767,21 +2783,21 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" t="s">
+        <v>446</v>
+      </c>
+      <c r="I9" t="s">
+        <v>443</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="I9" t="s">
-        <v>445</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>451</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>450</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -2792,21 +2808,21 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -2820,21 +2836,21 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" t="s">
+        <v>451</v>
+      </c>
+      <c r="I11" t="s">
+        <v>429</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="I11" t="s">
-        <v>431</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>457</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -2845,21 +2861,21 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" t="s">
+        <v>454</v>
+      </c>
+      <c r="I12" t="s">
+        <v>429</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="I12" t="s">
-        <v>431</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>459</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -2873,21 +2889,21 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -2901,21 +2917,21 @@
       <c r="F14" s="11"/>
       <c r="G14" s="3"/>
       <c r="H14" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -2926,21 +2942,21 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I15" t="s">
+        <v>464</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>466</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="I15" t="s">
-        <v>466</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>468</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>467</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -2951,21 +2967,21 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I16" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -2979,21 +2995,21 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -3004,21 +3020,21 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>10</v>
@@ -3032,18 +3048,18 @@
       <c r="F19" s="3"/>
       <c r="G19" s="11"/>
       <c r="H19" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>455</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>457</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>479</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -3057,18 +3073,18 @@
       <c r="F20" s="3"/>
       <c r="G20" s="11"/>
       <c r="H20" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>81</v>
@@ -3082,21 +3098,21 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>479</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>483</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -3110,21 +3126,21 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I22" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -3135,21 +3151,21 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I23" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -3163,21 +3179,21 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I24" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -3188,21 +3204,21 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -3216,21 +3232,21 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I26" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -3241,21 +3257,21 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -3266,21 +3282,21 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I28" t="s">
+        <v>432</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>496</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="I28" t="s">
-        <v>434</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>498</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>499</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -3294,21 +3310,21 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I29" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -3322,21 +3338,21 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I30" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -3350,21 +3366,21 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I31" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -3375,21 +3391,21 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -3403,21 +3419,21 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I33" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -3431,16 +3447,16 @@
       <c r="F34" s="3"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I34" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>166</v>
       </c>
@@ -3459,16 +3475,16 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I35" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -3484,18 +3500,18 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="29" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>166</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -3506,15 +3522,15 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="29" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>83</v>
@@ -3531,21 +3547,21 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I38" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -3559,21 +3575,21 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I39" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -3587,21 +3603,21 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I40" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
@@ -3615,21 +3631,21 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I41" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -3643,21 +3659,21 @@
       <c r="F42" s="3"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I42" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>96</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -3671,21 +3687,21 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>96</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -3699,21 +3715,21 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -3727,21 +3743,21 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I45" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -3755,21 +3771,21 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I46" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -3780,21 +3796,21 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I47" t="s">
         <v>536</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>538</v>
       </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
-        <v>540</v>
-      </c>
       <c r="B48" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -3808,21 +3824,21 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I48" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>538</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>542</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -3836,21 +3852,21 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I49" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C50" t="s">
         <v>56</v>
@@ -3864,21 +3880,21 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>177</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -3892,21 +3908,21 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I51" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
@@ -3920,21 +3936,21 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I52" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -3948,21 +3964,21 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I53" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -3976,21 +3992,21 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I54" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -4001,18 +4017,18 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>214</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
@@ -4026,21 +4042,21 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="I56" t="s">
+        <v>429</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>560</v>
       </c>
-      <c r="I56" t="s">
-        <v>431</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
-        <v>562</v>
-      </c>
       <c r="B57" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -4054,21 +4070,21 @@
       <c r="F57" s="3"/>
       <c r="G57" s="11"/>
       <c r="H57" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I57" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -4082,21 +4098,21 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I58" t="s">
+        <v>563</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>565</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="I58" t="s">
-        <v>565</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" t="s">
-        <v>567</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>568</v>
       </c>
       <c r="C59" t="s">
         <v>29</v>
@@ -4110,21 +4126,21 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I59" t="s">
+        <v>432</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>568</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="I59" t="s">
-        <v>434</v>
-      </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" t="s">
-        <v>570</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>571</v>
       </c>
       <c r="C60" t="s">
         <v>29</v>
@@ -4138,21 +4154,21 @@
       <c r="F60" s="3"/>
       <c r="G60" s="11"/>
       <c r="H60" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>504</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" t="s">
-        <v>506</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>574</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -4163,21 +4179,21 @@
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="I61" t="s">
+        <v>432</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>574</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="I61" t="s">
-        <v>434</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" t="s">
-        <v>576</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>577</v>
       </c>
       <c r="C62" t="s">
         <v>29</v>
@@ -4188,18 +4204,18 @@
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>577</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" t="s">
-        <v>579</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>580</v>
       </c>
       <c r="C63" t="s">
         <v>29</v>
@@ -4213,21 +4229,21 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I63" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -4241,21 +4257,21 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I64" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>582</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -4269,21 +4285,21 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I65" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>129</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
@@ -4294,21 +4310,21 @@
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="I66" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>129</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
@@ -4319,21 +4335,21 @@
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I67" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>129</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
@@ -4344,18 +4360,18 @@
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>166</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -4366,21 +4382,21 @@
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I69" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>318</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -4391,18 +4407,18 @@
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
@@ -4413,18 +4429,18 @@
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>599</v>
+      </c>
+      <c r="B72" t="s">
         <v>600</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" t="s">
-        <v>601</v>
-      </c>
-      <c r="B72" t="s">
-        <v>602</v>
       </c>
       <c r="C72" t="s">
         <v>29</v>
@@ -4438,24 +4454,24 @@
       <c r="F72" s="11"/>
       <c r="G72" s="3"/>
       <c r="H72" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="I72" t="s">
+        <v>429</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
         <v>603</v>
       </c>
-      <c r="I72" t="s">
-        <v>431</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="73" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
@@ -4469,24 +4485,24 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I73" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J73">
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>129</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -4497,19 +4513,19 @@
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I74" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
         <v>37</v>
       </c>
@@ -4522,21 +4538,21 @@
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>91</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C76" t="s">
         <v>29</v>
@@ -4547,15 +4563,15 @@
       <c r="F76" s="11"/>
       <c r="G76" s="9"/>
       <c r="H76" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -4564,12 +4580,12 @@
         <v>44500</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>318</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -4580,7 +4596,7 @@
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -4669,6 +4685,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5653F0-7DBE-4348-83E9-0DEE0967AA8D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BE06F8-5F70-403F-84B3-EE4B5CE0D5AB}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -4676,14 +4705,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.89453125" customWidth="1"/>
-    <col min="2" max="2" width="30.89453125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="34.578125" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>123</v>
       </c>
@@ -4694,7 +4723,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -4705,7 +4734,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -4716,7 +4745,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -4727,7 +4756,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -4744,7 +4773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76A9B2-B80E-4921-9CA2-5B729E2037AA}">
   <dimension ref="A1:J52"/>
   <sheetViews>
@@ -4752,22 +4781,22 @@
       <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.15625" customWidth="1"/>
-    <col min="2" max="2" width="50.62890625" customWidth="1"/>
-    <col min="3" max="3" width="15.05078125" customWidth="1"/>
-    <col min="4" max="4" width="14.3125" customWidth="1"/>
-    <col min="5" max="5" width="12.15625" customWidth="1"/>
-    <col min="6" max="6" width="13.83984375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.15625" customWidth="1"/>
-    <col min="8" max="8" width="60.05078125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.3671875" customWidth="1"/>
-    <col min="10" max="10" width="12.3125" customWidth="1"/>
-    <col min="11" max="11" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="60" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4799,7 +4828,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4827,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4855,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4883,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4911,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4939,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4967,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4995,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -5023,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -5051,7 +5080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5079,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -5107,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -5135,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5163,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -5191,7 +5220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -5219,7 +5248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -5247,7 +5276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -5275,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -5303,7 +5332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>63</v>
       </c>
@@ -5328,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -5356,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -5384,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -5412,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -5440,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -5468,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -5496,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -5524,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -5552,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -5580,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -5608,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -5636,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -5664,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -5692,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -5720,7 +5749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -5748,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -5776,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -5804,7 +5833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -5832,7 +5861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -5860,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -5888,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -5916,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -5944,7 +5973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -5970,7 +5999,7 @@
       </c>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -5998,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -6026,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -6054,7 +6083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>126</v>
       </c>
@@ -6082,7 +6111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -6110,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -6135,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -6163,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -6191,7 +6220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>126</v>
       </c>
@@ -6280,7 +6309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAED5F3-32A2-413D-B6F9-908EAD74B683}">
   <dimension ref="A1:J331"/>
   <sheetViews>
@@ -6288,21 +6317,21 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.47265625" customWidth="1"/>
-    <col min="2" max="2" width="62.1015625" customWidth="1"/>
-    <col min="3" max="3" width="14.62890625" customWidth="1"/>
-    <col min="4" max="4" width="15.1015625" customWidth="1"/>
-    <col min="5" max="5" width="12.68359375" customWidth="1"/>
-    <col min="6" max="6" width="13.578125" customWidth="1"/>
-    <col min="7" max="7" width="14.3125" customWidth="1"/>
-    <col min="8" max="8" width="42.05078125" customWidth="1"/>
-    <col min="9" max="9" width="19.47265625" customWidth="1"/>
-    <col min="10" max="10" width="17.41796875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="42" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6334,19 +6363,19 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>412</v>
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>152</v>
       </c>
@@ -6371,7 +6400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>153</v>
       </c>
@@ -6396,25 +6425,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>154</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>155</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>156</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>157</v>
       </c>
@@ -6439,7 +6468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>158</v>
       </c>
@@ -6461,7 +6490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>159</v>
       </c>
@@ -6483,1843 +6512,1843 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>160</v>
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>161</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>162</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>163</v>
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>164</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>165</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>166</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>167</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>168</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>169</v>
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>170</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>171</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>172</v>
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>173</v>
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>174</v>
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>175</v>
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>176</v>
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>177</v>
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>167</v>
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>178</v>
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>179</v>
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>180</v>
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>181</v>
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>182</v>
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>183</v>
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>184</v>
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>185</v>
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>186</v>
       </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>187</v>
       </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>188</v>
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>189</v>
       </c>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>190</v>
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>167</v>
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>191</v>
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>192</v>
       </c>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>193</v>
       </c>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>194</v>
       </c>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>195</v>
       </c>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>196</v>
       </c>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>46</v>
       </c>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>167</v>
       </c>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>197</v>
       </c>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>198</v>
       </c>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>199</v>
       </c>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>200</v>
       </c>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>201</v>
       </c>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>167</v>
       </c>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>202</v>
       </c>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>203</v>
       </c>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>204</v>
       </c>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>205</v>
       </c>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>206</v>
       </c>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>207</v>
       </c>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>208</v>
       </c>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>167</v>
       </c>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>209</v>
       </c>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>210</v>
       </c>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>211</v>
       </c>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>212</v>
       </c>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>213</v>
       </c>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>214</v>
       </c>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>167</v>
       </c>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>215</v>
       </c>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>216</v>
       </c>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>217</v>
       </c>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>218</v>
       </c>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>219</v>
       </c>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>220</v>
       </c>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>221</v>
       </c>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>222</v>
       </c>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>223</v>
       </c>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>224</v>
       </c>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>225</v>
       </c>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>226</v>
       </c>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>227</v>
       </c>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>228</v>
       </c>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>229</v>
       </c>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>230</v>
       </c>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>231</v>
       </c>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>232</v>
       </c>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>233</v>
       </c>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>39</v>
       </c>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>167</v>
       </c>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>234</v>
       </c>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>235</v>
       </c>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>236</v>
       </c>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>237</v>
       </c>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>238</v>
       </c>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>239</v>
       </c>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>240</v>
       </c>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>238</v>
       </c>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>194</v>
       </c>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>241</v>
       </c>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>242</v>
       </c>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>167</v>
       </c>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>243</v>
       </c>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>244</v>
       </c>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>245</v>
       </c>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>246</v>
       </c>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>247</v>
       </c>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>248</v>
       </c>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>249</v>
       </c>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>167</v>
       </c>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>250</v>
       </c>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>251</v>
       </c>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>252</v>
       </c>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>253</v>
       </c>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>254</v>
       </c>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>255</v>
       </c>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>256</v>
       </c>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>257</v>
       </c>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>258</v>
       </c>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>259</v>
       </c>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>260</v>
       </c>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>167</v>
       </c>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>253</v>
       </c>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>261</v>
       </c>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>262</v>
       </c>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>263</v>
       </c>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>264</v>
       </c>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>265</v>
       </c>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>266</v>
       </c>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>267</v>
       </c>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>268</v>
       </c>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>269</v>
       </c>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>167</v>
       </c>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>270</v>
       </c>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>271</v>
       </c>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>272</v>
       </c>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>273</v>
       </c>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>274</v>
       </c>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>275</v>
       </c>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>276</v>
       </c>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>277</v>
       </c>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>278</v>
       </c>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>279</v>
       </c>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>280</v>
       </c>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>281</v>
       </c>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>167</v>
       </c>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>282</v>
       </c>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>283</v>
       </c>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>284</v>
       </c>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>285</v>
       </c>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>189</v>
       </c>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>286</v>
       </c>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>287</v>
       </c>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>288</v>
       </c>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>289</v>
       </c>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>290</v>
       </c>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>291</v>
       </c>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>292</v>
       </c>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>293</v>
       </c>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>224</v>
       </c>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>294</v>
       </c>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>295</v>
       </c>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>167</v>
       </c>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>296</v>
       </c>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>297</v>
       </c>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>298</v>
       </c>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>299</v>
       </c>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>167</v>
       </c>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>300</v>
       </c>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>301</v>
       </c>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>302</v>
       </c>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>303</v>
       </c>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>304</v>
       </c>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>305</v>
       </c>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>306</v>
       </c>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>223</v>
       </c>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>307</v>
       </c>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>308</v>
       </c>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>309</v>
       </c>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>167</v>
       </c>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>310</v>
       </c>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>311</v>
       </c>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>312</v>
       </c>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>313</v>
       </c>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>167</v>
       </c>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>314</v>
       </c>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>315</v>
       </c>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>316</v>
       </c>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>317</v>
       </c>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>318</v>
       </c>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>167</v>
       </c>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>319</v>
       </c>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>320</v>
       </c>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>321</v>
       </c>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>322</v>
       </c>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>323</v>
       </c>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>215</v>
       </c>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>324</v>
       </c>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>325</v>
       </c>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>326</v>
       </c>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>327</v>
       </c>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>328</v>
       </c>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>329</v>
       </c>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>330</v>
       </c>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>331</v>
       </c>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>332</v>
       </c>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>333</v>
       </c>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>334</v>
       </c>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>335</v>
       </c>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>336</v>
       </c>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>337</v>
       </c>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>338</v>
       </c>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>339</v>
       </c>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>340</v>
       </c>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>341</v>
       </c>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>342</v>
       </c>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>343</v>
       </c>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>344</v>
       </c>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>18</v>
       </c>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>167</v>
       </c>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>345</v>
       </c>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>346</v>
       </c>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>347</v>
       </c>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>348</v>
       </c>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>349</v>
       </c>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>350</v>
       </c>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>351</v>
       </c>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>352</v>
       </c>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>353</v>
       </c>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>223</v>
       </c>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>354</v>
       </c>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>355</v>
       </c>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>356</v>
       </c>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>357</v>
       </c>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>358</v>
       </c>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>359</v>
       </c>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>360</v>
       </c>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>291</v>
       </c>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>129</v>
       </c>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>167</v>
       </c>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>361</v>
       </c>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>362</v>
       </c>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>363</v>
       </c>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>364</v>
       </c>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>365</v>
       </c>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>366</v>
       </c>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>367</v>
       </c>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>368</v>
       </c>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>167</v>
       </c>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>369</v>
       </c>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>370</v>
       </c>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>91</v>
       </c>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>167</v>
       </c>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>371</v>
       </c>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>372</v>
       </c>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>373</v>
       </c>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>374</v>
       </c>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>375</v>
       </c>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>376</v>
       </c>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>167</v>
       </c>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>377</v>
       </c>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>378</v>
       </c>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>118</v>
       </c>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>379</v>
       </c>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>380</v>
       </c>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>167</v>
       </c>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>381</v>
       </c>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>382</v>
       </c>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>383</v>
       </c>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>384</v>
       </c>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>385</v>
       </c>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>386</v>
       </c>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>387</v>
       </c>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>388</v>
       </c>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>341</v>
       </c>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>389</v>
       </c>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
         <v>390</v>
       </c>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>391</v>
       </c>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
         <v>392</v>
       </c>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>393</v>
       </c>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>394</v>
       </c>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>167</v>
       </c>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>395</v>
       </c>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
         <v>396</v>
       </c>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>397</v>
       </c>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
         <v>398</v>
       </c>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>399</v>
       </c>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>400</v>
       </c>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>401</v>
       </c>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>402</v>
       </c>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>403</v>
       </c>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>404</v>
       </c>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>330</v>
       </c>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>405</v>
       </c>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
         <v>406</v>
       </c>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>407</v>
       </c>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>408</v>
       </c>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
         <v>167</v>
       </c>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>409</v>
       </c>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>410</v>
       </c>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>411</v>
       </c>
@@ -8341,7 +8370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CB4E86-40DE-4E23-B5A5-C49CBC194A69}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -8349,20 +8378,20 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.89453125" customWidth="1"/>
-    <col min="2" max="2" width="47.15625" customWidth="1"/>
-    <col min="3" max="3" width="17.15625" customWidth="1"/>
-    <col min="4" max="4" width="11.83984375" customWidth="1"/>
-    <col min="5" max="5" width="10.83984375" customWidth="1"/>
-    <col min="6" max="6" width="11.47265625" customWidth="1"/>
-    <col min="7" max="7" width="13.3125" customWidth="1"/>
-    <col min="8" max="8" width="27.9453125" customWidth="1"/>
-    <col min="9" max="9" width="14.1015625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -8394,7 +8423,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>422</v>
       </c>
@@ -8419,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>425</v>
       </c>
@@ -8444,7 +8473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>426</v>
       </c>
@@ -8480,46 +8509,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DB2977-2A58-49B2-90D7-ACA5F43E4855}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE249FF6-6E44-42E9-BB6A-A8605DF2B5A6}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="10" width="8.9453125" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE249FF6-6E44-42E9-BB6A-A8605DF2B5A6}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="21.47265625" customWidth="1"/>
-    <col min="2" max="2" width="41.62890625" customWidth="1"/>
-    <col min="3" max="3" width="21.47265625" customWidth="1"/>
-    <col min="4" max="4" width="15.15625" customWidth="1"/>
-    <col min="5" max="5" width="16.41796875" customWidth="1"/>
-    <col min="6" max="6" width="19.83984375" customWidth="1"/>
-    <col min="7" max="7" width="14.1015625" customWidth="1"/>
-    <col min="8" max="8" width="33.9453125" customWidth="1"/>
-    <col min="9" max="9" width="15.9453125" customWidth="1"/>
-    <col min="10" max="10" width="13.5234375" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -8551,36 +8563,123 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>427</v>
+        <v>613</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2">
-        <v>44066</v>
+        <v>44573</v>
       </c>
       <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" t="s">
+        <v>614</v>
+      </c>
+      <c r="I2" t="s">
+        <v>615</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" t="s">
-        <v>428</v>
-      </c>
-      <c r="J2">
+      <c r="D3" s="2">
+        <v>44573</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" t="s">
+        <v>614</v>
+      </c>
+      <c r="I3" t="s">
+        <v>615</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43842</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="I4" t="s">
+        <v>615</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43850</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{2B0CE135-016D-4E1E-8765-662F78677814}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2A51107A-2D8E-4A9F-84D3-85EAB204321C}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C2A7B1DB-3E93-4D3E-8418-476FC5A7AB8C}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{B895A8C0-26C7-4DAB-B746-39877736C457}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{B5B7D31F-9289-4BB2-A65B-458264C09A0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Leetcode Problems.xlsx
+++ b/Leetcode Problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e301380\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF778BEA-7083-4578-AF4A-59A6B94122BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C6CD48-D0A4-452C-B986-D4E39B9D345E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="2475" windowWidth="17280" windowHeight="9030" activeTab="6" xr2:uid="{A2574B3D-CE33-477F-9E43-04A3705B3233}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{A2574B3D-CE33-477F-9E43-04A3705B3233}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode Patterns" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="629">
   <si>
     <t>Type</t>
   </si>
@@ -1898,6 +1898,33 @@
   </si>
   <si>
     <t xml:space="preserve">Add character freq to dictionary, while freq Count is &gt; than k shrink window, get window size </t>
+  </si>
+  <si>
+    <t>O(N)/O(N)</t>
+  </si>
+  <si>
+    <t>Add character freq to dictionary, while freq Count is &gt; than 2(num of baskets) shrink window, get window size</t>
+  </si>
+  <si>
+    <t>Add char freq to dictionary, when curr char freq &gt; 1, shrink window until curr char freq is &lt;= 1</t>
+  </si>
+  <si>
+    <t>O(N)/O(K) K for distinct characters</t>
+  </si>
+  <si>
+    <t>Add char freq to dictionary, keep a variable that keeps track of char with most count(maxLetterCount), when window length + maxLetterCount is greater than k shrink window from start</t>
+  </si>
+  <si>
+    <t>O(N)/O(1) because there are only 26 chars in alphabet</t>
+  </si>
+  <si>
+    <t>1004. Max Consecutive Ones III</t>
+  </si>
+  <si>
+    <t>Add char freq to dictionary, keep a variable that keeps track of the amount of 1's seen so far, when window length + onesCount is greater than k shrink window from start</t>
+  </si>
+  <si>
+    <t>Revisit On</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2125,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2144,6 +2171,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent5" xfId="5" builtinId="45"/>
@@ -8511,10 +8541,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE249FF6-6E44-42E9-BB6A-A8605DF2B5A6}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8529,9 +8559,10 @@
     <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -8562,8 +8593,11 @@
       <c r="J1" s="20" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="33" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -8591,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>166</v>
       </c>
@@ -8619,7 +8653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -8630,7 +8664,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="2">
-        <v>43842</v>
+        <v>44573</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -8647,7 +8681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>166</v>
       </c>
@@ -8658,7 +8692,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="2">
-        <v>43850</v>
+        <v>44573</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -8670,6 +8704,127 @@
       </c>
       <c r="J5">
         <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>44576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44574</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="I6" t="s">
+        <v>620</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44574</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44574</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>44577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44574</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="I9" t="s">
+        <v>615</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>44577</v>
       </c>
     </row>
   </sheetData>
@@ -8678,8 +8833,12 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{C2A7B1DB-3E93-4D3E-8418-476FC5A7AB8C}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{B895A8C0-26C7-4DAB-B746-39877736C457}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{B5B7D31F-9289-4BB2-A65B-458264C09A0A}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{5C1EA379-9449-4B22-90CA-8932D7B6E608}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{F8E90670-2790-4FBF-B653-0F7F2456A797}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{E9E4F333-6CA7-47A3-ACB9-9883CF4FE4A2}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{D201D27B-3812-43F9-8CD1-2F109FA2128B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>